--- a/setup.xlsx
+++ b/setup.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6368" uniqueCount="258">
   <si>
     <t>BRAND</t>
   </si>
@@ -711,6 +711,81 @@
   </si>
   <si>
     <t>604084191359</t>
+  </si>
+  <si>
+    <t>unit_cost</t>
+  </si>
+  <si>
+    <t>msrp</t>
+  </si>
+  <si>
+    <t>MULTIBOX_SHIPMENT</t>
+  </si>
+  <si>
+    <t>SHIPPING_LENGTH</t>
+  </si>
+  <si>
+    <t>SHIPPING_WIDTH</t>
+  </si>
+  <si>
+    <t>SHIPPING_HEIGHT</t>
+  </si>
+  <si>
+    <t>SHIPPING_WEIGHT</t>
+  </si>
+  <si>
+    <t>CASE_PACK</t>
+  </si>
+  <si>
+    <t>INNER_PACK</t>
+  </si>
+  <si>
+    <t>DIM_CALC</t>
+  </si>
+  <si>
+    <t>LTL_FREIGHT</t>
+  </si>
+  <si>
+    <t>SHIPPING_RESTRICTIONS</t>
+  </si>
+  <si>
+    <t>COUNTRY_OF_ORIGIN</t>
+  </si>
+  <si>
+    <t>long_description</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>92% Polyester, 8% Spandex</t>
+  </si>
+  <si>
+    <t>91% Polyester, 9% Spandex</t>
+  </si>
+  <si>
+    <t>88% Polyester, 12% Spandex</t>
+  </si>
+  <si>
+    <t>77% Polyester, 23% Spandex</t>
+  </si>
+  <si>
+    <t>87% Polyester, 13% Spandex</t>
   </si>
 </sst>
 </file>
@@ -781,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="H8" t="s">
         <v>7</v>
@@ -790,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -808,7 +883,43 @@
         <v>14</v>
       </c>
       <c r="P8" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>236</v>
+      </c>
+      <c r="R8" t="s">
+        <v>237</v>
+      </c>
+      <c r="S8" t="s">
+        <v>238</v>
+      </c>
+      <c r="T8" t="s">
+        <v>239</v>
+      </c>
+      <c r="U8" t="s">
+        <v>240</v>
+      </c>
+      <c r="V8" t="s">
+        <v>241</v>
+      </c>
+      <c r="W8" t="s">
+        <v>242</v>
+      </c>
+      <c r="X8" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA8" t="s">
         <v>15</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="9">
@@ -831,7 +942,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
@@ -839,8 +950,8 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="s">
-        <v>18</v>
+      <c r="J9" t="n">
+        <v>46.0</v>
       </c>
       <c r="K9" t="s">
         <v>18</v>
@@ -858,7 +969,39 @@
         <v>24</v>
       </c>
       <c r="P9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>247</v>
+      </c>
+      <c r="R9" t="s">
+        <v>248</v>
+      </c>
+      <c r="S9" t="s">
+        <v>249</v>
+      </c>
+      <c r="T9" t="s">
+        <v>250</v>
+      </c>
+      <c r="U9" t="s">
+        <v>250</v>
+      </c>
+      <c r="V9" t="s">
+        <v>250</v>
+      </c>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA9" t="s">
         <v>25</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="10">
@@ -881,7 +1024,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>18</v>
@@ -889,8 +1032,8 @@
       <c r="I10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="0" t="s">
-        <v>18</v>
+      <c r="J10" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>18</v>
@@ -908,7 +1051,39 @@
         <v>24</v>
       </c>
       <c r="P10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA10" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="11">
@@ -931,7 +1106,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>18</v>
@@ -939,8 +1114,8 @@
       <c r="I11" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>18</v>
+      <c r="J11" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>18</v>
@@ -958,7 +1133,39 @@
         <v>24</v>
       </c>
       <c r="P11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA11" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="12">
@@ -981,7 +1188,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>18</v>
@@ -989,8 +1196,8 @@
       <c r="I12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="0" t="s">
-        <v>18</v>
+      <c r="J12" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>18</v>
@@ -1008,7 +1215,39 @@
         <v>24</v>
       </c>
       <c r="P12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA12" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="13">
@@ -1031,7 +1270,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>18</v>
@@ -1039,8 +1278,8 @@
       <c r="I13" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="0" t="s">
-        <v>18</v>
+      <c r="J13" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>18</v>
@@ -1058,7 +1297,39 @@
         <v>24</v>
       </c>
       <c r="P13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W13" s="0"/>
+      <c r="X13" s="0"/>
+      <c r="Y13" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA13" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="14">
@@ -1081,7 +1352,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>18</v>
@@ -1089,8 +1360,8 @@
       <c r="I14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="0" t="s">
-        <v>18</v>
+      <c r="J14" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>18</v>
@@ -1108,7 +1379,39 @@
         <v>24</v>
       </c>
       <c r="P14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W14" s="0"/>
+      <c r="X14" s="0"/>
+      <c r="Y14" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA14" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1434,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>18</v>
@@ -1139,8 +1442,8 @@
       <c r="I15" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="0" t="s">
-        <v>18</v>
+      <c r="J15" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>18</v>
@@ -1158,7 +1461,39 @@
         <v>24</v>
       </c>
       <c r="P15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W15" s="0"/>
+      <c r="X15" s="0"/>
+      <c r="Y15" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA15" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="16">
@@ -1181,7 +1516,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>18</v>
@@ -1189,8 +1524,8 @@
       <c r="I16" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="0" t="s">
-        <v>18</v>
+      <c r="J16" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>18</v>
@@ -1208,7 +1543,39 @@
         <v>24</v>
       </c>
       <c r="P16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA16" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="17">
@@ -1231,7 +1598,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>18</v>
@@ -1239,8 +1606,8 @@
       <c r="I17" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="0" t="s">
-        <v>18</v>
+      <c r="J17" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>18</v>
@@ -1258,7 +1625,39 @@
         <v>24</v>
       </c>
       <c r="P17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W17" s="0"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA17" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="18">
@@ -1281,7 +1680,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>18</v>
@@ -1289,8 +1688,8 @@
       <c r="I18" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="0" t="s">
-        <v>18</v>
+      <c r="J18" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>18</v>
@@ -1308,7 +1707,39 @@
         <v>24</v>
       </c>
       <c r="P18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W18" s="0"/>
+      <c r="X18" s="0"/>
+      <c r="Y18" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA18" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="19">
@@ -1331,7 +1762,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>18</v>
@@ -1339,8 +1770,8 @@
       <c r="I19" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="0" t="s">
-        <v>18</v>
+      <c r="J19" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>18</v>
@@ -1358,7 +1789,39 @@
         <v>24</v>
       </c>
       <c r="P19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W19" s="0"/>
+      <c r="X19" s="0"/>
+      <c r="Y19" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA19" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1844,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>18</v>
@@ -1389,8 +1852,8 @@
       <c r="I20" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="0" t="s">
-        <v>18</v>
+      <c r="J20" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>18</v>
@@ -1408,7 +1871,39 @@
         <v>24</v>
       </c>
       <c r="P20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W20" s="0"/>
+      <c r="X20" s="0"/>
+      <c r="Y20" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA20" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="21">
@@ -1431,7 +1926,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>18</v>
@@ -1439,8 +1934,8 @@
       <c r="I21" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="0" t="s">
-        <v>18</v>
+      <c r="J21" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>18</v>
@@ -1458,7 +1953,39 @@
         <v>24</v>
       </c>
       <c r="P21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W21" s="0"/>
+      <c r="X21" s="0"/>
+      <c r="Y21" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA21" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="22">
@@ -1481,7 +2008,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>18</v>
@@ -1489,8 +2016,8 @@
       <c r="I22" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="0" t="s">
-        <v>18</v>
+      <c r="J22" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>18</v>
@@ -1508,7 +2035,39 @@
         <v>24</v>
       </c>
       <c r="P22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W22" s="0"/>
+      <c r="X22" s="0"/>
+      <c r="Y22" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA22" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB22" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="23">
@@ -1531,7 +2090,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>18</v>
@@ -1539,8 +2098,8 @@
       <c r="I23" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="0" t="s">
-        <v>18</v>
+      <c r="J23" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>18</v>
@@ -1558,7 +2117,39 @@
         <v>24</v>
       </c>
       <c r="P23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W23" s="0"/>
+      <c r="X23" s="0"/>
+      <c r="Y23" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA23" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="24">
@@ -1581,7 +2172,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>18</v>
@@ -1589,8 +2180,8 @@
       <c r="I24" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="0" t="s">
-        <v>18</v>
+      <c r="J24" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>18</v>
@@ -1608,7 +2199,39 @@
         <v>24</v>
       </c>
       <c r="P24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W24" s="0"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA24" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="25">
@@ -1631,7 +2254,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>18</v>
@@ -1639,8 +2262,8 @@
       <c r="I25" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="0" t="s">
-        <v>18</v>
+      <c r="J25" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>18</v>
@@ -1658,7 +2281,39 @@
         <v>24</v>
       </c>
       <c r="P25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W25" s="0"/>
+      <c r="X25" s="0"/>
+      <c r="Y25" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z25" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA25" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="26">
@@ -1681,7 +2336,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>18</v>
@@ -1689,8 +2344,8 @@
       <c r="I26" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="0" t="s">
-        <v>18</v>
+      <c r="J26" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>18</v>
@@ -1708,7 +2363,39 @@
         <v>24</v>
       </c>
       <c r="P26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W26" s="0"/>
+      <c r="X26" s="0"/>
+      <c r="Y26" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z26" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA26" s="0" t="s">
         <v>57</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="27">
@@ -1731,7 +2418,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>18</v>
@@ -1739,8 +2426,8 @@
       <c r="I27" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="0" t="s">
-        <v>18</v>
+      <c r="J27" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>18</v>
@@ -1758,7 +2445,39 @@
         <v>24</v>
       </c>
       <c r="P27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W27" s="0"/>
+      <c r="X27" s="0"/>
+      <c r="Y27" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z27" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA27" s="0" t="s">
         <v>57</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="28">
@@ -1781,7 +2500,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>18</v>
@@ -1789,8 +2508,8 @@
       <c r="I28" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="0" t="s">
-        <v>18</v>
+      <c r="J28" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>18</v>
@@ -1808,7 +2527,39 @@
         <v>24</v>
       </c>
       <c r="P28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W28" s="0"/>
+      <c r="X28" s="0"/>
+      <c r="Y28" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z28" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA28" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB28" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="29">
@@ -1831,7 +2582,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>18</v>
@@ -1839,8 +2590,8 @@
       <c r="I29" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="0" t="s">
-        <v>18</v>
+      <c r="J29" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>18</v>
@@ -1858,7 +2609,39 @@
         <v>24</v>
       </c>
       <c r="P29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W29" s="0"/>
+      <c r="X29" s="0"/>
+      <c r="Y29" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z29" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA29" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB29" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="30">
@@ -1881,7 +2664,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>18</v>
@@ -1889,8 +2672,8 @@
       <c r="I30" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="0" t="s">
-        <v>18</v>
+      <c r="J30" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>18</v>
@@ -1908,7 +2691,39 @@
         <v>24</v>
       </c>
       <c r="P30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V30" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W30" s="0"/>
+      <c r="X30" s="0"/>
+      <c r="Y30" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z30" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA30" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB30" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="31">
@@ -1931,7 +2746,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>18</v>
@@ -1939,8 +2754,8 @@
       <c r="I31" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="0" t="s">
-        <v>18</v>
+      <c r="J31" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>18</v>
@@ -1958,7 +2773,39 @@
         <v>24</v>
       </c>
       <c r="P31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V31" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W31" s="0"/>
+      <c r="X31" s="0"/>
+      <c r="Y31" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z31" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA31" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB31" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="32">
@@ -1981,7 +2828,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>18</v>
@@ -1989,8 +2836,8 @@
       <c r="I32" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="0" t="s">
-        <v>18</v>
+      <c r="J32" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>18</v>
@@ -2008,7 +2855,39 @@
         <v>24</v>
       </c>
       <c r="P32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V32" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W32" s="0"/>
+      <c r="X32" s="0"/>
+      <c r="Y32" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z32" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA32" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB32" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="33">
@@ -2031,7 +2910,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>18</v>
@@ -2039,8 +2918,8 @@
       <c r="I33" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="0" t="s">
-        <v>18</v>
+      <c r="J33" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>18</v>
@@ -2058,7 +2937,39 @@
         <v>24</v>
       </c>
       <c r="P33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T33" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V33" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W33" s="0"/>
+      <c r="X33" s="0"/>
+      <c r="Y33" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z33" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA33" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB33" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="34">
@@ -2081,7 +2992,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>18</v>
@@ -2089,8 +3000,8 @@
       <c r="I34" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="0" t="s">
-        <v>18</v>
+      <c r="J34" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>18</v>
@@ -2108,7 +3019,39 @@
         <v>24</v>
       </c>
       <c r="P34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T34" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U34" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V34" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W34" s="0"/>
+      <c r="X34" s="0"/>
+      <c r="Y34" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z34" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA34" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB34" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="35">
@@ -2131,7 +3074,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>18</v>
@@ -2139,8 +3082,8 @@
       <c r="I35" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="0" t="s">
-        <v>18</v>
+      <c r="J35" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>18</v>
@@ -2158,7 +3101,39 @@
         <v>24</v>
       </c>
       <c r="P35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V35" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W35" s="0"/>
+      <c r="X35" s="0"/>
+      <c r="Y35" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z35" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA35" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB35" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="36">
@@ -2181,7 +3156,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>18</v>
@@ -2189,8 +3164,8 @@
       <c r="I36" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="0" t="s">
-        <v>18</v>
+      <c r="J36" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>18</v>
@@ -2208,7 +3183,39 @@
         <v>24</v>
       </c>
       <c r="P36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T36" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U36" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V36" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W36" s="0"/>
+      <c r="X36" s="0"/>
+      <c r="Y36" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z36" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA36" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="AB36" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="37">
@@ -2231,7 +3238,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>18</v>
@@ -2239,8 +3246,8 @@
       <c r="I37" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="0" t="s">
-        <v>18</v>
+      <c r="J37" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K37" s="0" t="s">
         <v>18</v>
@@ -2258,7 +3265,39 @@
         <v>24</v>
       </c>
       <c r="P37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T37" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V37" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W37" s="0"/>
+      <c r="X37" s="0"/>
+      <c r="Y37" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z37" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA37" s="0" t="s">
         <v>71</v>
+      </c>
+      <c r="AB37" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="38">
@@ -2281,7 +3320,7 @@
         <v>18</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>18</v>
@@ -2289,8 +3328,8 @@
       <c r="I38" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="0" t="s">
-        <v>18</v>
+      <c r="J38" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>18</v>
@@ -2308,7 +3347,39 @@
         <v>24</v>
       </c>
       <c r="P38" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T38" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V38" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W38" s="0"/>
+      <c r="X38" s="0"/>
+      <c r="Y38" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z38" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA38" s="0" t="s">
         <v>71</v>
+      </c>
+      <c r="AB38" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="39">
@@ -2331,7 +3402,7 @@
         <v>18</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>18</v>
@@ -2339,8 +3410,8 @@
       <c r="I39" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="0" t="s">
-        <v>18</v>
+      <c r="J39" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>18</v>
@@ -2358,7 +3429,39 @@
         <v>24</v>
       </c>
       <c r="P39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T39" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V39" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W39" s="0"/>
+      <c r="X39" s="0"/>
+      <c r="Y39" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z39" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA39" s="0" t="s">
         <v>71</v>
+      </c>
+      <c r="AB39" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="40">
@@ -2381,7 +3484,7 @@
         <v>18</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>18</v>
@@ -2389,8 +3492,8 @@
       <c r="I40" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="0" t="s">
-        <v>18</v>
+      <c r="J40" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>18</v>
@@ -2408,7 +3511,39 @@
         <v>24</v>
       </c>
       <c r="P40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T40" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V40" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W40" s="0"/>
+      <c r="X40" s="0"/>
+      <c r="Y40" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z40" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA40" s="0" t="s">
         <v>71</v>
+      </c>
+      <c r="AB40" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="41">
@@ -2431,7 +3566,7 @@
         <v>18</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>18</v>
@@ -2439,8 +3574,8 @@
       <c r="I41" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="0" t="s">
-        <v>18</v>
+      <c r="J41" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>18</v>
@@ -2458,7 +3593,39 @@
         <v>24</v>
       </c>
       <c r="P41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R41" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S41" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T41" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V41" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W41" s="0"/>
+      <c r="X41" s="0"/>
+      <c r="Y41" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z41" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA41" s="0" t="s">
         <v>71</v>
+      </c>
+      <c r="AB41" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="42">
@@ -2481,7 +3648,7 @@
         <v>18</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>18</v>
@@ -2489,8 +3656,8 @@
       <c r="I42" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="0" t="s">
-        <v>18</v>
+      <c r="J42" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>18</v>
@@ -2508,7 +3675,39 @@
         <v>24</v>
       </c>
       <c r="P42" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T42" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U42" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V42" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W42" s="0"/>
+      <c r="X42" s="0"/>
+      <c r="Y42" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z42" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA42" s="0" t="s">
         <v>71</v>
+      </c>
+      <c r="AB42" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="43">
@@ -2531,7 +3730,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>18</v>
@@ -2539,8 +3738,8 @@
       <c r="I43" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="0" t="s">
-        <v>18</v>
+      <c r="J43" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>18</v>
@@ -2558,7 +3757,39 @@
         <v>24</v>
       </c>
       <c r="P43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R43" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S43" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T43" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U43" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V43" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W43" s="0"/>
+      <c r="X43" s="0"/>
+      <c r="Y43" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z43" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA43" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB43" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="44">
@@ -2581,7 +3812,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>18</v>
@@ -2589,8 +3820,8 @@
       <c r="I44" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="0" t="s">
-        <v>18</v>
+      <c r="J44" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>18</v>
@@ -2608,7 +3839,39 @@
         <v>24</v>
       </c>
       <c r="P44" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T44" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V44" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W44" s="0"/>
+      <c r="X44" s="0"/>
+      <c r="Y44" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z44" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA44" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB44" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="45">
@@ -2631,7 +3894,7 @@
         <v>18</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>18</v>
@@ -2639,8 +3902,8 @@
       <c r="I45" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J45" s="0" t="s">
-        <v>18</v>
+      <c r="J45" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>18</v>
@@ -2658,7 +3921,39 @@
         <v>24</v>
       </c>
       <c r="P45" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T45" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U45" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V45" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W45" s="0"/>
+      <c r="X45" s="0"/>
+      <c r="Y45" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z45" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA45" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB45" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="46">
@@ -2681,7 +3976,7 @@
         <v>18</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>18</v>
@@ -2689,8 +3984,8 @@
       <c r="I46" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J46" s="0" t="s">
-        <v>18</v>
+      <c r="J46" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>18</v>
@@ -2708,7 +4003,39 @@
         <v>24</v>
       </c>
       <c r="P46" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T46" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V46" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W46" s="0"/>
+      <c r="X46" s="0"/>
+      <c r="Y46" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z46" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA46" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB46" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="47">
@@ -2731,7 +4058,7 @@
         <v>18</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>18</v>
@@ -2739,8 +4066,8 @@
       <c r="I47" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J47" s="0" t="s">
-        <v>18</v>
+      <c r="J47" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>18</v>
@@ -2758,7 +4085,39 @@
         <v>24</v>
       </c>
       <c r="P47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T47" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U47" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V47" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W47" s="0"/>
+      <c r="X47" s="0"/>
+      <c r="Y47" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z47" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA47" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB47" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="48">
@@ -2781,7 +4140,7 @@
         <v>18</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>18</v>
@@ -2789,8 +4148,8 @@
       <c r="I48" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="0" t="s">
-        <v>18</v>
+      <c r="J48" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>18</v>
@@ -2808,7 +4167,39 @@
         <v>24</v>
       </c>
       <c r="P48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R48" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T48" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U48" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V48" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W48" s="0"/>
+      <c r="X48" s="0"/>
+      <c r="Y48" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z48" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA48" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB48" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="49">
@@ -2831,7 +4222,7 @@
         <v>18</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>18</v>
@@ -2839,8 +4230,8 @@
       <c r="I49" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J49" s="0" t="s">
-        <v>18</v>
+      <c r="J49" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>18</v>
@@ -2858,7 +4249,39 @@
         <v>24</v>
       </c>
       <c r="P49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R49" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T49" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U49" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V49" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W49" s="0"/>
+      <c r="X49" s="0"/>
+      <c r="Y49" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z49" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA49" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB49" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="50">
@@ -2881,7 +4304,7 @@
         <v>18</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>18</v>
@@ -2889,8 +4312,8 @@
       <c r="I50" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="0" t="s">
-        <v>18</v>
+      <c r="J50" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K50" s="0" t="s">
         <v>18</v>
@@ -2908,7 +4331,39 @@
         <v>24</v>
       </c>
       <c r="P50" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R50" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S50" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T50" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U50" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V50" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W50" s="0"/>
+      <c r="X50" s="0"/>
+      <c r="Y50" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z50" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA50" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB50" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="51">
@@ -2931,7 +4386,7 @@
         <v>18</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>18</v>
@@ -2939,8 +4394,8 @@
       <c r="I51" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J51" s="0" t="s">
-        <v>18</v>
+      <c r="J51" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>18</v>
@@ -2958,7 +4413,39 @@
         <v>24</v>
       </c>
       <c r="P51" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R51" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T51" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U51" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V51" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W51" s="0"/>
+      <c r="X51" s="0"/>
+      <c r="Y51" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z51" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA51" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB51" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="52">
@@ -2981,7 +4468,7 @@
         <v>18</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>18</v>
@@ -2989,8 +4476,8 @@
       <c r="I52" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="0" t="s">
-        <v>18</v>
+      <c r="J52" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>18</v>
@@ -3008,7 +4495,39 @@
         <v>24</v>
       </c>
       <c r="P52" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R52" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T52" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V52" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W52" s="0"/>
+      <c r="X52" s="0"/>
+      <c r="Y52" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z52" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA52" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB52" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="53">
@@ -3031,7 +4550,7 @@
         <v>18</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>18</v>
@@ -3039,8 +4558,8 @@
       <c r="I53" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="0" t="s">
-        <v>18</v>
+      <c r="J53" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>18</v>
@@ -3058,7 +4577,39 @@
         <v>24</v>
       </c>
       <c r="P53" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R53" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T53" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U53" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V53" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W53" s="0"/>
+      <c r="X53" s="0"/>
+      <c r="Y53" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z53" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA53" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB53" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="54">
@@ -3081,7 +4632,7 @@
         <v>18</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>18</v>
@@ -3089,8 +4640,8 @@
       <c r="I54" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J54" s="0" t="s">
-        <v>18</v>
+      <c r="J54" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>18</v>
@@ -3108,7 +4659,39 @@
         <v>24</v>
       </c>
       <c r="P54" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R54" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S54" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T54" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U54" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V54" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W54" s="0"/>
+      <c r="X54" s="0"/>
+      <c r="Y54" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z54" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA54" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB54" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="55">
@@ -3131,7 +4714,7 @@
         <v>18</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>18</v>
@@ -3139,8 +4722,8 @@
       <c r="I55" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J55" s="0" t="s">
-        <v>18</v>
+      <c r="J55" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>18</v>
@@ -3158,7 +4741,39 @@
         <v>24</v>
       </c>
       <c r="P55" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R55" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T55" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U55" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V55" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W55" s="0"/>
+      <c r="X55" s="0"/>
+      <c r="Y55" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z55" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA55" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB55" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="56">
@@ -3181,7 +4796,7 @@
         <v>18</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>18</v>
@@ -3189,8 +4804,8 @@
       <c r="I56" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J56" s="0" t="s">
-        <v>18</v>
+      <c r="J56" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>18</v>
@@ -3208,7 +4823,39 @@
         <v>24</v>
       </c>
       <c r="P56" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q56" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R56" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S56" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T56" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U56" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V56" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W56" s="0"/>
+      <c r="X56" s="0"/>
+      <c r="Y56" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z56" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA56" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB56" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="57">
@@ -3231,7 +4878,7 @@
         <v>18</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>18</v>
@@ -3239,8 +4886,8 @@
       <c r="I57" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="0" t="s">
-        <v>18</v>
+      <c r="J57" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>18</v>
@@ -3258,7 +4905,39 @@
         <v>24</v>
       </c>
       <c r="P57" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q57" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R57" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S57" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T57" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U57" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V57" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W57" s="0"/>
+      <c r="X57" s="0"/>
+      <c r="Y57" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z57" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA57" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB57" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="58">
@@ -3281,7 +4960,7 @@
         <v>18</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>18</v>
@@ -3289,8 +4968,8 @@
       <c r="I58" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J58" s="0" t="s">
-        <v>18</v>
+      <c r="J58" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>18</v>
@@ -3308,7 +4987,39 @@
         <v>24</v>
       </c>
       <c r="P58" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q58" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R58" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S58" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T58" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U58" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V58" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W58" s="0"/>
+      <c r="X58" s="0"/>
+      <c r="Y58" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z58" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA58" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB58" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="59">
@@ -3331,7 +5042,7 @@
         <v>18</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>18</v>
@@ -3339,8 +5050,8 @@
       <c r="I59" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="0" t="s">
-        <v>18</v>
+      <c r="J59" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>18</v>
@@ -3358,7 +5069,39 @@
         <v>24</v>
       </c>
       <c r="P59" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R59" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T59" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U59" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V59" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W59" s="0"/>
+      <c r="X59" s="0"/>
+      <c r="Y59" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z59" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA59" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB59" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="60">
@@ -3381,7 +5124,7 @@
         <v>18</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>18</v>
@@ -3389,8 +5132,8 @@
       <c r="I60" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="0" t="s">
-        <v>18</v>
+      <c r="J60" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>18</v>
@@ -3408,7 +5151,39 @@
         <v>24</v>
       </c>
       <c r="P60" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q60" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R60" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S60" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T60" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U60" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V60" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W60" s="0"/>
+      <c r="X60" s="0"/>
+      <c r="Y60" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z60" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA60" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="AB60" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="61">
@@ -3431,7 +5206,7 @@
         <v>18</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>18</v>
@@ -3439,8 +5214,8 @@
       <c r="I61" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="0" t="s">
-        <v>18</v>
+      <c r="J61" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K61" s="0" t="s">
         <v>18</v>
@@ -3458,7 +5233,39 @@
         <v>24</v>
       </c>
       <c r="P61" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q61" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R61" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S61" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T61" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U61" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V61" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W61" s="0"/>
+      <c r="X61" s="0"/>
+      <c r="Y61" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z61" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA61" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB61" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="62">
@@ -3481,7 +5288,7 @@
         <v>18</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>18</v>
@@ -3489,8 +5296,8 @@
       <c r="I62" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J62" s="0" t="s">
-        <v>18</v>
+      <c r="J62" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K62" s="0" t="s">
         <v>18</v>
@@ -3508,7 +5315,39 @@
         <v>24</v>
       </c>
       <c r="P62" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q62" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R62" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S62" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T62" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U62" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V62" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W62" s="0"/>
+      <c r="X62" s="0"/>
+      <c r="Y62" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z62" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA62" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB62" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="63">
@@ -3531,7 +5370,7 @@
         <v>18</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>18</v>
@@ -3539,8 +5378,8 @@
       <c r="I63" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J63" s="0" t="s">
-        <v>18</v>
+      <c r="J63" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K63" s="0" t="s">
         <v>18</v>
@@ -3558,7 +5397,39 @@
         <v>24</v>
       </c>
       <c r="P63" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q63" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R63" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S63" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T63" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U63" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V63" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W63" s="0"/>
+      <c r="X63" s="0"/>
+      <c r="Y63" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z63" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA63" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB63" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="64">
@@ -3581,7 +5452,7 @@
         <v>18</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>18</v>
@@ -3589,8 +5460,8 @@
       <c r="I64" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J64" s="0" t="s">
-        <v>18</v>
+      <c r="J64" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K64" s="0" t="s">
         <v>18</v>
@@ -3608,7 +5479,39 @@
         <v>24</v>
       </c>
       <c r="P64" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q64" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R64" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S64" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T64" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U64" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V64" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W64" s="0"/>
+      <c r="X64" s="0"/>
+      <c r="Y64" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z64" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA64" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB64" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="65">
@@ -3631,7 +5534,7 @@
         <v>18</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>18</v>
@@ -3639,8 +5542,8 @@
       <c r="I65" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J65" s="0" t="s">
-        <v>18</v>
+      <c r="J65" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K65" s="0" t="s">
         <v>18</v>
@@ -3658,7 +5561,39 @@
         <v>24</v>
       </c>
       <c r="P65" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q65" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R65" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S65" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T65" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U65" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V65" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W65" s="0"/>
+      <c r="X65" s="0"/>
+      <c r="Y65" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z65" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA65" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB65" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="66">
@@ -3681,7 +5616,7 @@
         <v>18</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>18</v>
@@ -3689,8 +5624,8 @@
       <c r="I66" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J66" s="0" t="s">
-        <v>18</v>
+      <c r="J66" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K66" s="0" t="s">
         <v>18</v>
@@ -3708,7 +5643,39 @@
         <v>24</v>
       </c>
       <c r="P66" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q66" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R66" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S66" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T66" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U66" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V66" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W66" s="0"/>
+      <c r="X66" s="0"/>
+      <c r="Y66" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z66" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA66" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB66" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="67">
@@ -3731,7 +5698,7 @@
         <v>18</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>18</v>
@@ -3739,8 +5706,8 @@
       <c r="I67" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="0" t="s">
-        <v>18</v>
+      <c r="J67" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K67" s="0" t="s">
         <v>18</v>
@@ -3758,7 +5725,39 @@
         <v>24</v>
       </c>
       <c r="P67" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q67" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R67" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S67" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T67" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U67" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V67" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W67" s="0"/>
+      <c r="X67" s="0"/>
+      <c r="Y67" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z67" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA67" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB67" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="68">
@@ -3781,7 +5780,7 @@
         <v>18</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>18</v>
@@ -3789,8 +5788,8 @@
       <c r="I68" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J68" s="0" t="s">
-        <v>18</v>
+      <c r="J68" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K68" s="0" t="s">
         <v>18</v>
@@ -3808,7 +5807,39 @@
         <v>24</v>
       </c>
       <c r="P68" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q68" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R68" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S68" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T68" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U68" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V68" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W68" s="0"/>
+      <c r="X68" s="0"/>
+      <c r="Y68" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z68" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA68" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB68" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="69">
@@ -3831,7 +5862,7 @@
         <v>18</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>18</v>
@@ -3839,8 +5870,8 @@
       <c r="I69" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J69" s="0" t="s">
-        <v>18</v>
+      <c r="J69" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K69" s="0" t="s">
         <v>18</v>
@@ -3858,7 +5889,39 @@
         <v>24</v>
       </c>
       <c r="P69" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q69" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R69" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S69" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T69" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U69" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V69" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W69" s="0"/>
+      <c r="X69" s="0"/>
+      <c r="Y69" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z69" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA69" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB69" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="70">
@@ -3881,7 +5944,7 @@
         <v>18</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>18</v>
@@ -3889,8 +5952,8 @@
       <c r="I70" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J70" s="0" t="s">
-        <v>18</v>
+      <c r="J70" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K70" s="0" t="s">
         <v>18</v>
@@ -3908,7 +5971,39 @@
         <v>24</v>
       </c>
       <c r="P70" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q70" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R70" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S70" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T70" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U70" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V70" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W70" s="0"/>
+      <c r="X70" s="0"/>
+      <c r="Y70" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z70" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA70" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB70" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="71">
@@ -3931,7 +6026,7 @@
         <v>18</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>18</v>
@@ -3939,8 +6034,8 @@
       <c r="I71" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="0" t="s">
-        <v>18</v>
+      <c r="J71" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K71" s="0" t="s">
         <v>18</v>
@@ -3958,7 +6053,39 @@
         <v>24</v>
       </c>
       <c r="P71" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q71" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R71" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S71" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T71" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U71" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V71" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W71" s="0"/>
+      <c r="X71" s="0"/>
+      <c r="Y71" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z71" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA71" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB71" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="72">
@@ -3981,7 +6108,7 @@
         <v>18</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>18</v>
@@ -3989,8 +6116,8 @@
       <c r="I72" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J72" s="0" t="s">
-        <v>18</v>
+      <c r="J72" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K72" s="0" t="s">
         <v>18</v>
@@ -4008,7 +6135,39 @@
         <v>24</v>
       </c>
       <c r="P72" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q72" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R72" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S72" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T72" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U72" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V72" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W72" s="0"/>
+      <c r="X72" s="0"/>
+      <c r="Y72" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z72" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA72" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB72" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="73">
@@ -4031,7 +6190,7 @@
         <v>18</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>18</v>
@@ -4039,8 +6198,8 @@
       <c r="I73" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J73" s="0" t="s">
-        <v>18</v>
+      <c r="J73" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K73" s="0" t="s">
         <v>18</v>
@@ -4058,7 +6217,39 @@
         <v>24</v>
       </c>
       <c r="P73" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q73" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R73" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S73" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T73" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U73" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V73" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W73" s="0"/>
+      <c r="X73" s="0"/>
+      <c r="Y73" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z73" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA73" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB73" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="74">
@@ -4081,7 +6272,7 @@
         <v>18</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>18</v>
@@ -4089,8 +6280,8 @@
       <c r="I74" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J74" s="0" t="s">
-        <v>18</v>
+      <c r="J74" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K74" s="0" t="s">
         <v>18</v>
@@ -4108,7 +6299,39 @@
         <v>24</v>
       </c>
       <c r="P74" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q74" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R74" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S74" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T74" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U74" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V74" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W74" s="0"/>
+      <c r="X74" s="0"/>
+      <c r="Y74" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z74" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA74" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB74" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="75">
@@ -4131,7 +6354,7 @@
         <v>18</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>18</v>
@@ -4139,8 +6362,8 @@
       <c r="I75" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="0" t="s">
-        <v>18</v>
+      <c r="J75" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K75" s="0" t="s">
         <v>18</v>
@@ -4158,7 +6381,39 @@
         <v>24</v>
       </c>
       <c r="P75" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q75" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R75" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S75" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T75" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U75" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V75" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W75" s="0"/>
+      <c r="X75" s="0"/>
+      <c r="Y75" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z75" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA75" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB75" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="76">
@@ -4181,7 +6436,7 @@
         <v>18</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>18</v>
@@ -4189,8 +6444,8 @@
       <c r="I76" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J76" s="0" t="s">
-        <v>18</v>
+      <c r="J76" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K76" s="0" t="s">
         <v>18</v>
@@ -4208,7 +6463,39 @@
         <v>24</v>
       </c>
       <c r="P76" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q76" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R76" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S76" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T76" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U76" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V76" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W76" s="0"/>
+      <c r="X76" s="0"/>
+      <c r="Y76" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z76" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA76" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB76" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="77">
@@ -4231,7 +6518,7 @@
         <v>18</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>18</v>
@@ -4239,8 +6526,8 @@
       <c r="I77" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J77" s="0" t="s">
-        <v>18</v>
+      <c r="J77" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K77" s="0" t="s">
         <v>18</v>
@@ -4258,7 +6545,39 @@
         <v>24</v>
       </c>
       <c r="P77" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q77" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R77" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S77" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T77" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U77" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V77" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W77" s="0"/>
+      <c r="X77" s="0"/>
+      <c r="Y77" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z77" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA77" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB77" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="78">
@@ -4281,7 +6600,7 @@
         <v>18</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>18</v>
@@ -4289,8 +6608,8 @@
       <c r="I78" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J78" s="0" t="s">
-        <v>18</v>
+      <c r="J78" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K78" s="0" t="s">
         <v>18</v>
@@ -4308,7 +6627,39 @@
         <v>24</v>
       </c>
       <c r="P78" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q78" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R78" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S78" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T78" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U78" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V78" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W78" s="0"/>
+      <c r="X78" s="0"/>
+      <c r="Y78" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z78" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA78" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="AB78" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="79">
@@ -4331,7 +6682,7 @@
         <v>18</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>18</v>
@@ -4339,8 +6690,8 @@
       <c r="I79" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="0" t="s">
-        <v>18</v>
+      <c r="J79" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K79" s="0" t="s">
         <v>18</v>
@@ -4358,7 +6709,39 @@
         <v>24</v>
       </c>
       <c r="P79" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q79" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R79" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S79" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T79" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U79" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V79" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W79" s="0"/>
+      <c r="X79" s="0"/>
+      <c r="Y79" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z79" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA79" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB79" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="80">
@@ -4381,7 +6764,7 @@
         <v>18</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>18</v>
@@ -4389,8 +6772,8 @@
       <c r="I80" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J80" s="0" t="s">
-        <v>18</v>
+      <c r="J80" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K80" s="0" t="s">
         <v>18</v>
@@ -4408,7 +6791,39 @@
         <v>24</v>
       </c>
       <c r="P80" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q80" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R80" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S80" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T80" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U80" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V80" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W80" s="0"/>
+      <c r="X80" s="0"/>
+      <c r="Y80" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z80" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA80" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB80" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="81">
@@ -4431,7 +6846,7 @@
         <v>18</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>18</v>
@@ -4439,8 +6854,8 @@
       <c r="I81" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="0" t="s">
-        <v>18</v>
+      <c r="J81" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K81" s="0" t="s">
         <v>18</v>
@@ -4458,7 +6873,39 @@
         <v>24</v>
       </c>
       <c r="P81" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q81" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R81" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S81" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T81" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U81" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V81" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W81" s="0"/>
+      <c r="X81" s="0"/>
+      <c r="Y81" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z81" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA81" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB81" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="82">
@@ -4481,7 +6928,7 @@
         <v>18</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>18</v>
@@ -4489,8 +6936,8 @@
       <c r="I82" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J82" s="0" t="s">
-        <v>18</v>
+      <c r="J82" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K82" s="0" t="s">
         <v>18</v>
@@ -4508,7 +6955,39 @@
         <v>24</v>
       </c>
       <c r="P82" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q82" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R82" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S82" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T82" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U82" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V82" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W82" s="0"/>
+      <c r="X82" s="0"/>
+      <c r="Y82" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z82" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA82" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB82" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="83">
@@ -4531,7 +7010,7 @@
         <v>18</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>18</v>
@@ -4539,8 +7018,8 @@
       <c r="I83" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="0" t="s">
-        <v>18</v>
+      <c r="J83" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K83" s="0" t="s">
         <v>18</v>
@@ -4558,7 +7037,39 @@
         <v>24</v>
       </c>
       <c r="P83" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q83" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R83" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S83" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T83" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U83" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V83" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W83" s="0"/>
+      <c r="X83" s="0"/>
+      <c r="Y83" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z83" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA83" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB83" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="84">
@@ -4581,7 +7092,7 @@
         <v>18</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>18</v>
@@ -4589,8 +7100,8 @@
       <c r="I84" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J84" s="0" t="s">
-        <v>18</v>
+      <c r="J84" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K84" s="0" t="s">
         <v>18</v>
@@ -4608,7 +7119,39 @@
         <v>24</v>
       </c>
       <c r="P84" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q84" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R84" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S84" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T84" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U84" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V84" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W84" s="0"/>
+      <c r="X84" s="0"/>
+      <c r="Y84" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z84" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA84" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB84" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="85">
@@ -4631,7 +7174,7 @@
         <v>18</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>18</v>
@@ -4639,8 +7182,8 @@
       <c r="I85" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J85" s="0" t="s">
-        <v>18</v>
+      <c r="J85" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K85" s="0" t="s">
         <v>18</v>
@@ -4658,7 +7201,39 @@
         <v>24</v>
       </c>
       <c r="P85" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q85" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R85" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S85" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T85" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U85" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V85" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W85" s="0"/>
+      <c r="X85" s="0"/>
+      <c r="Y85" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z85" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA85" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB85" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="86">
@@ -4681,7 +7256,7 @@
         <v>18</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>18</v>
@@ -4689,8 +7264,8 @@
       <c r="I86" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J86" s="0" t="s">
-        <v>18</v>
+      <c r="J86" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K86" s="0" t="s">
         <v>18</v>
@@ -4708,7 +7283,39 @@
         <v>24</v>
       </c>
       <c r="P86" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q86" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R86" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S86" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T86" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U86" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V86" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W86" s="0"/>
+      <c r="X86" s="0"/>
+      <c r="Y86" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z86" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA86" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB86" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="87">
@@ -4731,7 +7338,7 @@
         <v>18</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>18</v>
@@ -4739,8 +7346,8 @@
       <c r="I87" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J87" s="0" t="s">
-        <v>18</v>
+      <c r="J87" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K87" s="0" t="s">
         <v>18</v>
@@ -4758,7 +7365,39 @@
         <v>24</v>
       </c>
       <c r="P87" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q87" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R87" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S87" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T87" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U87" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V87" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W87" s="0"/>
+      <c r="X87" s="0"/>
+      <c r="Y87" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z87" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA87" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB87" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="88">
@@ -4781,7 +7420,7 @@
         <v>18</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>18</v>
@@ -4789,8 +7428,8 @@
       <c r="I88" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J88" s="0" t="s">
-        <v>18</v>
+      <c r="J88" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K88" s="0" t="s">
         <v>18</v>
@@ -4808,7 +7447,39 @@
         <v>24</v>
       </c>
       <c r="P88" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q88" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R88" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S88" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T88" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U88" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V88" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W88" s="0"/>
+      <c r="X88" s="0"/>
+      <c r="Y88" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z88" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA88" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB88" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="89">
@@ -4831,7 +7502,7 @@
         <v>18</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>18</v>
@@ -4839,8 +7510,8 @@
       <c r="I89" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J89" s="0" t="s">
-        <v>18</v>
+      <c r="J89" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K89" s="0" t="s">
         <v>18</v>
@@ -4858,7 +7529,39 @@
         <v>24</v>
       </c>
       <c r="P89" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q89" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R89" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S89" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T89" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U89" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V89" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W89" s="0"/>
+      <c r="X89" s="0"/>
+      <c r="Y89" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z89" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA89" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB89" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="90">
@@ -4881,7 +7584,7 @@
         <v>18</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>18</v>
@@ -4889,8 +7592,8 @@
       <c r="I90" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J90" s="0" t="s">
-        <v>18</v>
+      <c r="J90" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K90" s="0" t="s">
         <v>18</v>
@@ -4908,7 +7611,39 @@
         <v>24</v>
       </c>
       <c r="P90" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q90" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R90" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S90" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T90" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U90" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V90" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W90" s="0"/>
+      <c r="X90" s="0"/>
+      <c r="Y90" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z90" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA90" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB90" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="91">
@@ -4931,7 +7666,7 @@
         <v>18</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>18</v>
@@ -4939,8 +7674,8 @@
       <c r="I91" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J91" s="0" t="s">
-        <v>18</v>
+      <c r="J91" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K91" s="0" t="s">
         <v>18</v>
@@ -4958,7 +7693,39 @@
         <v>24</v>
       </c>
       <c r="P91" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q91" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R91" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S91" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T91" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U91" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V91" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W91" s="0"/>
+      <c r="X91" s="0"/>
+      <c r="Y91" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z91" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA91" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB91" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="92">
@@ -4981,7 +7748,7 @@
         <v>18</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>18</v>
@@ -4989,8 +7756,8 @@
       <c r="I92" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J92" s="0" t="s">
-        <v>18</v>
+      <c r="J92" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K92" s="0" t="s">
         <v>18</v>
@@ -5008,7 +7775,39 @@
         <v>24</v>
       </c>
       <c r="P92" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q92" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R92" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S92" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T92" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U92" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V92" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W92" s="0"/>
+      <c r="X92" s="0"/>
+      <c r="Y92" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z92" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA92" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB92" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="93">
@@ -5031,7 +7830,7 @@
         <v>18</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>18</v>
@@ -5039,8 +7838,8 @@
       <c r="I93" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J93" s="0" t="s">
-        <v>18</v>
+      <c r="J93" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K93" s="0" t="s">
         <v>18</v>
@@ -5058,7 +7857,39 @@
         <v>24</v>
       </c>
       <c r="P93" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q93" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R93" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S93" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T93" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U93" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V93" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W93" s="0"/>
+      <c r="X93" s="0"/>
+      <c r="Y93" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z93" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA93" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB93" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="94">
@@ -5081,7 +7912,7 @@
         <v>18</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>18</v>
@@ -5089,8 +7920,8 @@
       <c r="I94" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J94" s="0" t="s">
-        <v>18</v>
+      <c r="J94" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K94" s="0" t="s">
         <v>18</v>
@@ -5108,7 +7939,39 @@
         <v>24</v>
       </c>
       <c r="P94" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q94" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R94" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S94" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T94" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U94" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V94" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W94" s="0"/>
+      <c r="X94" s="0"/>
+      <c r="Y94" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z94" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA94" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB94" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="95">
@@ -5131,7 +7994,7 @@
         <v>18</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>18</v>
@@ -5139,8 +8002,8 @@
       <c r="I95" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J95" s="0" t="s">
-        <v>18</v>
+      <c r="J95" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K95" s="0" t="s">
         <v>18</v>
@@ -5158,7 +8021,39 @@
         <v>24</v>
       </c>
       <c r="P95" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q95" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R95" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S95" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T95" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U95" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V95" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W95" s="0"/>
+      <c r="X95" s="0"/>
+      <c r="Y95" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z95" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA95" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB95" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="96">
@@ -5181,7 +8076,7 @@
         <v>18</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>18</v>
@@ -5189,8 +8084,8 @@
       <c r="I96" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J96" s="0" t="s">
-        <v>18</v>
+      <c r="J96" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K96" s="0" t="s">
         <v>18</v>
@@ -5208,7 +8103,39 @@
         <v>24</v>
       </c>
       <c r="P96" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q96" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R96" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S96" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T96" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U96" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V96" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W96" s="0"/>
+      <c r="X96" s="0"/>
+      <c r="Y96" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z96" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA96" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB96" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="97">
@@ -5231,7 +8158,7 @@
         <v>18</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>18</v>
@@ -5239,8 +8166,8 @@
       <c r="I97" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J97" s="0" t="s">
-        <v>18</v>
+      <c r="J97" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K97" s="0" t="s">
         <v>18</v>
@@ -5258,7 +8185,39 @@
         <v>24</v>
       </c>
       <c r="P97" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q97" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R97" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S97" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T97" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U97" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V97" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W97" s="0"/>
+      <c r="X97" s="0"/>
+      <c r="Y97" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z97" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA97" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB97" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="98">
@@ -5281,7 +8240,7 @@
         <v>18</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>18</v>
@@ -5289,8 +8248,8 @@
       <c r="I98" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J98" s="0" t="s">
-        <v>18</v>
+      <c r="J98" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K98" s="0" t="s">
         <v>18</v>
@@ -5308,7 +8267,39 @@
         <v>24</v>
       </c>
       <c r="P98" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q98" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R98" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S98" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T98" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U98" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V98" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W98" s="0"/>
+      <c r="X98" s="0"/>
+      <c r="Y98" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z98" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA98" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB98" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="99">
@@ -5331,7 +8322,7 @@
         <v>18</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>18</v>
@@ -5339,8 +8330,8 @@
       <c r="I99" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J99" s="0" t="s">
-        <v>18</v>
+      <c r="J99" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K99" s="0" t="s">
         <v>18</v>
@@ -5358,7 +8349,39 @@
         <v>24</v>
       </c>
       <c r="P99" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q99" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R99" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S99" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T99" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U99" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V99" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W99" s="0"/>
+      <c r="X99" s="0"/>
+      <c r="Y99" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z99" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA99" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB99" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="100">
@@ -5381,7 +8404,7 @@
         <v>18</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>18</v>
@@ -5389,8 +8412,8 @@
       <c r="I100" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J100" s="0" t="s">
-        <v>18</v>
+      <c r="J100" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K100" s="0" t="s">
         <v>18</v>
@@ -5408,7 +8431,39 @@
         <v>24</v>
       </c>
       <c r="P100" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q100" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R100" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S100" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T100" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U100" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V100" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W100" s="0"/>
+      <c r="X100" s="0"/>
+      <c r="Y100" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z100" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA100" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB100" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="101">
@@ -5431,7 +8486,7 @@
         <v>18</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>18</v>
@@ -5439,8 +8494,8 @@
       <c r="I101" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J101" s="0" t="s">
-        <v>18</v>
+      <c r="J101" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K101" s="0" t="s">
         <v>18</v>
@@ -5458,7 +8513,39 @@
         <v>24</v>
       </c>
       <c r="P101" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q101" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R101" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S101" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T101" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U101" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V101" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W101" s="0"/>
+      <c r="X101" s="0"/>
+      <c r="Y101" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z101" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA101" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB101" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="102">
@@ -5481,7 +8568,7 @@
         <v>18</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>18</v>
@@ -5489,8 +8576,8 @@
       <c r="I102" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J102" s="0" t="s">
-        <v>18</v>
+      <c r="J102" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K102" s="0" t="s">
         <v>18</v>
@@ -5508,7 +8595,39 @@
         <v>24</v>
       </c>
       <c r="P102" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q102" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R102" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S102" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T102" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U102" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V102" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W102" s="0"/>
+      <c r="X102" s="0"/>
+      <c r="Y102" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z102" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA102" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB102" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="103">
@@ -5531,7 +8650,7 @@
         <v>18</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>18</v>
@@ -5539,8 +8658,8 @@
       <c r="I103" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J103" s="0" t="s">
-        <v>18</v>
+      <c r="J103" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K103" s="0" t="s">
         <v>18</v>
@@ -5558,7 +8677,39 @@
         <v>24</v>
       </c>
       <c r="P103" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q103" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R103" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S103" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T103" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U103" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V103" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W103" s="0"/>
+      <c r="X103" s="0"/>
+      <c r="Y103" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z103" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA103" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB103" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="104">
@@ -5581,7 +8732,7 @@
         <v>18</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>18</v>
@@ -5589,8 +8740,8 @@
       <c r="I104" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J104" s="0" t="s">
-        <v>18</v>
+      <c r="J104" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K104" s="0" t="s">
         <v>18</v>
@@ -5608,7 +8759,39 @@
         <v>24</v>
       </c>
       <c r="P104" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q104" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R104" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S104" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T104" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U104" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V104" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W104" s="0"/>
+      <c r="X104" s="0"/>
+      <c r="Y104" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z104" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA104" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB104" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="105">
@@ -5631,7 +8814,7 @@
         <v>18</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>18</v>
@@ -5639,8 +8822,8 @@
       <c r="I105" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J105" s="0" t="s">
-        <v>18</v>
+      <c r="J105" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K105" s="0" t="s">
         <v>18</v>
@@ -5658,7 +8841,39 @@
         <v>24</v>
       </c>
       <c r="P105" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q105" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R105" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S105" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T105" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U105" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V105" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W105" s="0"/>
+      <c r="X105" s="0"/>
+      <c r="Y105" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z105" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA105" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB105" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="106">
@@ -5681,7 +8896,7 @@
         <v>18</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H106" s="0" t="s">
         <v>18</v>
@@ -5689,8 +8904,8 @@
       <c r="I106" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J106" s="0" t="s">
-        <v>18</v>
+      <c r="J106" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K106" s="0" t="s">
         <v>18</v>
@@ -5708,7 +8923,39 @@
         <v>24</v>
       </c>
       <c r="P106" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q106" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R106" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S106" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T106" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U106" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V106" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W106" s="0"/>
+      <c r="X106" s="0"/>
+      <c r="Y106" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z106" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA106" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB106" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="107">
@@ -5731,7 +8978,7 @@
         <v>18</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>18</v>
@@ -5739,8 +8986,8 @@
       <c r="I107" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J107" s="0" t="s">
-        <v>18</v>
+      <c r="J107" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K107" s="0" t="s">
         <v>18</v>
@@ -5758,7 +9005,39 @@
         <v>24</v>
       </c>
       <c r="P107" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q107" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R107" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S107" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T107" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U107" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V107" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W107" s="0"/>
+      <c r="X107" s="0"/>
+      <c r="Y107" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z107" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA107" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB107" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="108">
@@ -5781,7 +9060,7 @@
         <v>18</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>18</v>
@@ -5789,8 +9068,8 @@
       <c r="I108" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J108" s="0" t="s">
-        <v>18</v>
+      <c r="J108" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K108" s="0" t="s">
         <v>18</v>
@@ -5808,7 +9087,39 @@
         <v>24</v>
       </c>
       <c r="P108" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q108" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R108" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S108" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T108" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U108" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V108" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W108" s="0"/>
+      <c r="X108" s="0"/>
+      <c r="Y108" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z108" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA108" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="AB108" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="109">
@@ -5831,7 +9142,7 @@
         <v>18</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H109" s="0" t="s">
         <v>18</v>
@@ -5839,8 +9150,8 @@
       <c r="I109" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J109" s="0" t="s">
-        <v>18</v>
+      <c r="J109" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K109" s="0" t="s">
         <v>18</v>
@@ -5858,7 +9169,39 @@
         <v>24</v>
       </c>
       <c r="P109" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q109" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R109" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S109" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T109" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U109" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V109" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W109" s="0"/>
+      <c r="X109" s="0"/>
+      <c r="Y109" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z109" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA109" s="0" t="s">
         <v>161</v>
+      </c>
+      <c r="AB109" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="110">
@@ -5881,7 +9224,7 @@
         <v>18</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>18</v>
@@ -5889,8 +9232,8 @@
       <c r="I110" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J110" s="0" t="s">
-        <v>18</v>
+      <c r="J110" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K110" s="0" t="s">
         <v>18</v>
@@ -5908,7 +9251,39 @@
         <v>24</v>
       </c>
       <c r="P110" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q110" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R110" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S110" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T110" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U110" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V110" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W110" s="0"/>
+      <c r="X110" s="0"/>
+      <c r="Y110" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z110" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA110" s="0" t="s">
         <v>161</v>
+      </c>
+      <c r="AB110" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="111">
@@ -5931,7 +9306,7 @@
         <v>18</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>18</v>
@@ -5939,8 +9314,8 @@
       <c r="I111" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J111" s="0" t="s">
-        <v>18</v>
+      <c r="J111" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K111" s="0" t="s">
         <v>18</v>
@@ -5958,7 +9333,39 @@
         <v>24</v>
       </c>
       <c r="P111" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q111" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R111" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S111" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T111" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U111" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V111" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W111" s="0"/>
+      <c r="X111" s="0"/>
+      <c r="Y111" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z111" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA111" s="0" t="s">
         <v>161</v>
+      </c>
+      <c r="AB111" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="112">
@@ -5981,7 +9388,7 @@
         <v>18</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>18</v>
@@ -5989,8 +9396,8 @@
       <c r="I112" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J112" s="0" t="s">
-        <v>18</v>
+      <c r="J112" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K112" s="0" t="s">
         <v>18</v>
@@ -6008,7 +9415,39 @@
         <v>24</v>
       </c>
       <c r="P112" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q112" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R112" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S112" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T112" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U112" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V112" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W112" s="0"/>
+      <c r="X112" s="0"/>
+      <c r="Y112" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z112" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA112" s="0" t="s">
         <v>161</v>
+      </c>
+      <c r="AB112" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="113">
@@ -6031,7 +9470,7 @@
         <v>18</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>18</v>
@@ -6039,8 +9478,8 @@
       <c r="I113" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J113" s="0" t="s">
-        <v>18</v>
+      <c r="J113" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K113" s="0" t="s">
         <v>18</v>
@@ -6058,7 +9497,39 @@
         <v>24</v>
       </c>
       <c r="P113" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q113" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R113" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S113" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T113" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U113" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V113" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W113" s="0"/>
+      <c r="X113" s="0"/>
+      <c r="Y113" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z113" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA113" s="0" t="s">
         <v>161</v>
+      </c>
+      <c r="AB113" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="114">
@@ -6081,7 +9552,7 @@
         <v>18</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>18</v>
@@ -6089,8 +9560,8 @@
       <c r="I114" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J114" s="0" t="s">
-        <v>18</v>
+      <c r="J114" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K114" s="0" t="s">
         <v>18</v>
@@ -6108,7 +9579,39 @@
         <v>24</v>
       </c>
       <c r="P114" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q114" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R114" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S114" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T114" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U114" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V114" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W114" s="0"/>
+      <c r="X114" s="0"/>
+      <c r="Y114" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z114" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA114" s="0" t="s">
         <v>161</v>
+      </c>
+      <c r="AB114" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="115">
@@ -6131,7 +9634,7 @@
         <v>18</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>18</v>
@@ -6139,8 +9642,8 @@
       <c r="I115" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J115" s="0" t="s">
-        <v>18</v>
+      <c r="J115" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K115" s="0" t="s">
         <v>18</v>
@@ -6158,7 +9661,39 @@
         <v>24</v>
       </c>
       <c r="P115" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q115" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R115" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S115" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T115" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U115" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V115" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W115" s="0"/>
+      <c r="X115" s="0"/>
+      <c r="Y115" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z115" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA115" s="0" t="s">
         <v>161</v>
+      </c>
+      <c r="AB115" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="116">
@@ -6181,7 +9716,7 @@
         <v>18</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>18</v>
@@ -6189,8 +9724,8 @@
       <c r="I116" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J116" s="0" t="s">
-        <v>18</v>
+      <c r="J116" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K116" s="0" t="s">
         <v>18</v>
@@ -6208,7 +9743,39 @@
         <v>24</v>
       </c>
       <c r="P116" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q116" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R116" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S116" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T116" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U116" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V116" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W116" s="0"/>
+      <c r="X116" s="0"/>
+      <c r="Y116" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z116" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA116" s="0" t="s">
         <v>161</v>
+      </c>
+      <c r="AB116" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="117">
@@ -6231,7 +9798,7 @@
         <v>18</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>18</v>
@@ -6239,8 +9806,8 @@
       <c r="I117" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J117" s="0" t="s">
-        <v>18</v>
+      <c r="J117" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K117" s="0" t="s">
         <v>18</v>
@@ -6258,7 +9825,39 @@
         <v>24</v>
       </c>
       <c r="P117" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q117" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R117" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S117" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T117" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U117" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V117" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W117" s="0"/>
+      <c r="X117" s="0"/>
+      <c r="Y117" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z117" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA117" s="0" t="s">
         <v>161</v>
+      </c>
+      <c r="AB117" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="118">
@@ -6281,7 +9880,7 @@
         <v>18</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>18</v>
@@ -6289,8 +9888,8 @@
       <c r="I118" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J118" s="0" t="s">
-        <v>18</v>
+      <c r="J118" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K118" s="0" t="s">
         <v>18</v>
@@ -6308,7 +9907,39 @@
         <v>24</v>
       </c>
       <c r="P118" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q118" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R118" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S118" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T118" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U118" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V118" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W118" s="0"/>
+      <c r="X118" s="0"/>
+      <c r="Y118" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z118" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA118" s="0" t="s">
         <v>161</v>
+      </c>
+      <c r="AB118" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="119">
@@ -6331,7 +9962,7 @@
         <v>18</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>18</v>
@@ -6339,8 +9970,8 @@
       <c r="I119" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J119" s="0" t="s">
-        <v>18</v>
+      <c r="J119" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K119" s="0" t="s">
         <v>18</v>
@@ -6358,7 +9989,39 @@
         <v>24</v>
       </c>
       <c r="P119" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q119" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R119" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S119" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T119" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U119" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V119" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W119" s="0"/>
+      <c r="X119" s="0"/>
+      <c r="Y119" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z119" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA119" s="0" t="s">
         <v>161</v>
+      </c>
+      <c r="AB119" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="120">
@@ -6381,7 +10044,7 @@
         <v>18</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>18</v>
@@ -6389,8 +10052,8 @@
       <c r="I120" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J120" s="0" t="s">
-        <v>18</v>
+      <c r="J120" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K120" s="0" t="s">
         <v>18</v>
@@ -6408,7 +10071,39 @@
         <v>24</v>
       </c>
       <c r="P120" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q120" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R120" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S120" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T120" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U120" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V120" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W120" s="0"/>
+      <c r="X120" s="0"/>
+      <c r="Y120" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z120" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA120" s="0" t="s">
         <v>161</v>
+      </c>
+      <c r="AB120" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="121">
@@ -6431,7 +10126,7 @@
         <v>18</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>18</v>
@@ -6439,8 +10134,8 @@
       <c r="I121" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J121" s="0" t="s">
-        <v>18</v>
+      <c r="J121" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K121" s="0" t="s">
         <v>18</v>
@@ -6458,7 +10153,39 @@
         <v>24</v>
       </c>
       <c r="P121" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q121" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R121" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S121" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T121" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U121" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V121" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W121" s="0"/>
+      <c r="X121" s="0"/>
+      <c r="Y121" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z121" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA121" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB121" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="122">
@@ -6481,7 +10208,7 @@
         <v>18</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>18</v>
@@ -6489,8 +10216,8 @@
       <c r="I122" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J122" s="0" t="s">
-        <v>18</v>
+      <c r="J122" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K122" s="0" t="s">
         <v>18</v>
@@ -6508,7 +10235,39 @@
         <v>24</v>
       </c>
       <c r="P122" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q122" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R122" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S122" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T122" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U122" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V122" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W122" s="0"/>
+      <c r="X122" s="0"/>
+      <c r="Y122" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z122" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA122" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB122" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="123">
@@ -6531,7 +10290,7 @@
         <v>18</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>18</v>
@@ -6539,8 +10298,8 @@
       <c r="I123" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J123" s="0" t="s">
-        <v>18</v>
+      <c r="J123" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K123" s="0" t="s">
         <v>18</v>
@@ -6558,7 +10317,39 @@
         <v>24</v>
       </c>
       <c r="P123" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q123" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R123" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S123" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T123" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U123" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V123" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W123" s="0"/>
+      <c r="X123" s="0"/>
+      <c r="Y123" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z123" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA123" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB123" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="124">
@@ -6581,7 +10372,7 @@
         <v>18</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H124" s="0" t="s">
         <v>18</v>
@@ -6589,8 +10380,8 @@
       <c r="I124" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J124" s="0" t="s">
-        <v>18</v>
+      <c r="J124" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K124" s="0" t="s">
         <v>18</v>
@@ -6608,7 +10399,39 @@
         <v>24</v>
       </c>
       <c r="P124" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q124" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R124" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S124" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T124" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U124" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V124" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W124" s="0"/>
+      <c r="X124" s="0"/>
+      <c r="Y124" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z124" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA124" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB124" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="125">
@@ -6631,7 +10454,7 @@
         <v>18</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>18</v>
@@ -6639,8 +10462,8 @@
       <c r="I125" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J125" s="0" t="s">
-        <v>18</v>
+      <c r="J125" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K125" s="0" t="s">
         <v>18</v>
@@ -6658,7 +10481,39 @@
         <v>24</v>
       </c>
       <c r="P125" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q125" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R125" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S125" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T125" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U125" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V125" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W125" s="0"/>
+      <c r="X125" s="0"/>
+      <c r="Y125" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z125" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA125" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB125" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="126">
@@ -6681,7 +10536,7 @@
         <v>18</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>18</v>
@@ -6689,8 +10544,8 @@
       <c r="I126" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J126" s="0" t="s">
-        <v>18</v>
+      <c r="J126" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K126" s="0" t="s">
         <v>18</v>
@@ -6708,7 +10563,39 @@
         <v>24</v>
       </c>
       <c r="P126" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q126" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R126" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S126" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T126" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U126" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V126" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W126" s="0"/>
+      <c r="X126" s="0"/>
+      <c r="Y126" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z126" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA126" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB126" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="127">
@@ -6731,7 +10618,7 @@
         <v>18</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>18</v>
@@ -6739,8 +10626,8 @@
       <c r="I127" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J127" s="0" t="s">
-        <v>18</v>
+      <c r="J127" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K127" s="0" t="s">
         <v>18</v>
@@ -6758,7 +10645,39 @@
         <v>24</v>
       </c>
       <c r="P127" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q127" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R127" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S127" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T127" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U127" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V127" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W127" s="0"/>
+      <c r="X127" s="0"/>
+      <c r="Y127" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z127" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA127" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB127" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="128">
@@ -6781,7 +10700,7 @@
         <v>18</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>18</v>
@@ -6789,8 +10708,8 @@
       <c r="I128" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J128" s="0" t="s">
-        <v>18</v>
+      <c r="J128" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K128" s="0" t="s">
         <v>18</v>
@@ -6808,7 +10727,39 @@
         <v>24</v>
       </c>
       <c r="P128" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q128" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R128" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S128" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T128" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U128" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V128" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W128" s="0"/>
+      <c r="X128" s="0"/>
+      <c r="Y128" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z128" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA128" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB128" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="129">
@@ -6831,7 +10782,7 @@
         <v>18</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>18</v>
@@ -6839,8 +10790,8 @@
       <c r="I129" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J129" s="0" t="s">
-        <v>18</v>
+      <c r="J129" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K129" s="0" t="s">
         <v>18</v>
@@ -6858,7 +10809,39 @@
         <v>24</v>
       </c>
       <c r="P129" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q129" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R129" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S129" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T129" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U129" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V129" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W129" s="0"/>
+      <c r="X129" s="0"/>
+      <c r="Y129" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z129" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA129" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB129" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="130">
@@ -6881,7 +10864,7 @@
         <v>18</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H130" s="0" t="s">
         <v>18</v>
@@ -6889,8 +10872,8 @@
       <c r="I130" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J130" s="0" t="s">
-        <v>18</v>
+      <c r="J130" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K130" s="0" t="s">
         <v>18</v>
@@ -6908,7 +10891,39 @@
         <v>24</v>
       </c>
       <c r="P130" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q130" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R130" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S130" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T130" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U130" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V130" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W130" s="0"/>
+      <c r="X130" s="0"/>
+      <c r="Y130" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z130" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA130" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB130" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="131">
@@ -6931,7 +10946,7 @@
         <v>18</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H131" s="0" t="s">
         <v>18</v>
@@ -6939,8 +10954,8 @@
       <c r="I131" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J131" s="0" t="s">
-        <v>18</v>
+      <c r="J131" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K131" s="0" t="s">
         <v>18</v>
@@ -6958,7 +10973,39 @@
         <v>24</v>
       </c>
       <c r="P131" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q131" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R131" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S131" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T131" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U131" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V131" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W131" s="0"/>
+      <c r="X131" s="0"/>
+      <c r="Y131" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z131" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA131" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB131" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="132">
@@ -6981,7 +11028,7 @@
         <v>18</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H132" s="0" t="s">
         <v>18</v>
@@ -6989,8 +11036,8 @@
       <c r="I132" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J132" s="0" t="s">
-        <v>18</v>
+      <c r="J132" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K132" s="0" t="s">
         <v>18</v>
@@ -7008,7 +11055,39 @@
         <v>24</v>
       </c>
       <c r="P132" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q132" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R132" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S132" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T132" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U132" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V132" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W132" s="0"/>
+      <c r="X132" s="0"/>
+      <c r="Y132" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z132" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA132" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB132" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="133">
@@ -7031,7 +11110,7 @@
         <v>18</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H133" s="0" t="s">
         <v>18</v>
@@ -7039,8 +11118,8 @@
       <c r="I133" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J133" s="0" t="s">
-        <v>18</v>
+      <c r="J133" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K133" s="0" t="s">
         <v>18</v>
@@ -7058,7 +11137,39 @@
         <v>24</v>
       </c>
       <c r="P133" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q133" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R133" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S133" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T133" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U133" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V133" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W133" s="0"/>
+      <c r="X133" s="0"/>
+      <c r="Y133" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z133" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA133" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB133" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="134">
@@ -7081,7 +11192,7 @@
         <v>18</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H134" s="0" t="s">
         <v>18</v>
@@ -7089,8 +11200,8 @@
       <c r="I134" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J134" s="0" t="s">
-        <v>18</v>
+      <c r="J134" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K134" s="0" t="s">
         <v>18</v>
@@ -7108,7 +11219,39 @@
         <v>24</v>
       </c>
       <c r="P134" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q134" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R134" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S134" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T134" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U134" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V134" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W134" s="0"/>
+      <c r="X134" s="0"/>
+      <c r="Y134" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z134" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA134" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB134" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="135">
@@ -7131,7 +11274,7 @@
         <v>18</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H135" s="0" t="s">
         <v>18</v>
@@ -7139,8 +11282,8 @@
       <c r="I135" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J135" s="0" t="s">
-        <v>18</v>
+      <c r="J135" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K135" s="0" t="s">
         <v>18</v>
@@ -7158,7 +11301,39 @@
         <v>24</v>
       </c>
       <c r="P135" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q135" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R135" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S135" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T135" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U135" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V135" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W135" s="0"/>
+      <c r="X135" s="0"/>
+      <c r="Y135" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z135" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA135" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB135" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="136">
@@ -7181,7 +11356,7 @@
         <v>18</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H136" s="0" t="s">
         <v>18</v>
@@ -7189,8 +11364,8 @@
       <c r="I136" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J136" s="0" t="s">
-        <v>18</v>
+      <c r="J136" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K136" s="0" t="s">
         <v>18</v>
@@ -7208,7 +11383,39 @@
         <v>24</v>
       </c>
       <c r="P136" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q136" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R136" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S136" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T136" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U136" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V136" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W136" s="0"/>
+      <c r="X136" s="0"/>
+      <c r="Y136" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z136" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA136" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB136" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="137">
@@ -7231,7 +11438,7 @@
         <v>18</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H137" s="0" t="s">
         <v>18</v>
@@ -7239,8 +11446,8 @@
       <c r="I137" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J137" s="0" t="s">
-        <v>18</v>
+      <c r="J137" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K137" s="0" t="s">
         <v>18</v>
@@ -7258,7 +11465,39 @@
         <v>24</v>
       </c>
       <c r="P137" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q137" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R137" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S137" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T137" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U137" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V137" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W137" s="0"/>
+      <c r="X137" s="0"/>
+      <c r="Y137" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z137" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA137" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB137" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="138">
@@ -7281,7 +11520,7 @@
         <v>18</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H138" s="0" t="s">
         <v>18</v>
@@ -7289,8 +11528,8 @@
       <c r="I138" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J138" s="0" t="s">
-        <v>18</v>
+      <c r="J138" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K138" s="0" t="s">
         <v>18</v>
@@ -7308,7 +11547,39 @@
         <v>24</v>
       </c>
       <c r="P138" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q138" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R138" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S138" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T138" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U138" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V138" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W138" s="0"/>
+      <c r="X138" s="0"/>
+      <c r="Y138" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z138" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA138" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="AB138" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="139">
@@ -7331,7 +11602,7 @@
         <v>18</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H139" s="0" t="s">
         <v>18</v>
@@ -7339,8 +11610,8 @@
       <c r="I139" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J139" s="0" t="s">
-        <v>18</v>
+      <c r="J139" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K139" s="0" t="s">
         <v>18</v>
@@ -7358,7 +11629,39 @@
         <v>24</v>
       </c>
       <c r="P139" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q139" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R139" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S139" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T139" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U139" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V139" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W139" s="0"/>
+      <c r="X139" s="0"/>
+      <c r="Y139" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z139" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA139" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB139" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="140">
@@ -7381,7 +11684,7 @@
         <v>18</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H140" s="0" t="s">
         <v>18</v>
@@ -7389,8 +11692,8 @@
       <c r="I140" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J140" s="0" t="s">
-        <v>18</v>
+      <c r="J140" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K140" s="0" t="s">
         <v>18</v>
@@ -7408,7 +11711,39 @@
         <v>24</v>
       </c>
       <c r="P140" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q140" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R140" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S140" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T140" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U140" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V140" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W140" s="0"/>
+      <c r="X140" s="0"/>
+      <c r="Y140" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z140" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA140" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB140" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="141">
@@ -7431,7 +11766,7 @@
         <v>18</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H141" s="0" t="s">
         <v>18</v>
@@ -7439,8 +11774,8 @@
       <c r="I141" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J141" s="0" t="s">
-        <v>18</v>
+      <c r="J141" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K141" s="0" t="s">
         <v>18</v>
@@ -7458,7 +11793,39 @@
         <v>24</v>
       </c>
       <c r="P141" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q141" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R141" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S141" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T141" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U141" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V141" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W141" s="0"/>
+      <c r="X141" s="0"/>
+      <c r="Y141" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z141" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA141" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB141" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="142">
@@ -7481,7 +11848,7 @@
         <v>18</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H142" s="0" t="s">
         <v>18</v>
@@ -7489,8 +11856,8 @@
       <c r="I142" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J142" s="0" t="s">
-        <v>18</v>
+      <c r="J142" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K142" s="0" t="s">
         <v>18</v>
@@ -7508,7 +11875,39 @@
         <v>24</v>
       </c>
       <c r="P142" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q142" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R142" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S142" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T142" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U142" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V142" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W142" s="0"/>
+      <c r="X142" s="0"/>
+      <c r="Y142" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z142" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA142" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB142" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="143">
@@ -7531,7 +11930,7 @@
         <v>18</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H143" s="0" t="s">
         <v>18</v>
@@ -7539,8 +11938,8 @@
       <c r="I143" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J143" s="0" t="s">
-        <v>18</v>
+      <c r="J143" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K143" s="0" t="s">
         <v>18</v>
@@ -7558,7 +11957,39 @@
         <v>24</v>
       </c>
       <c r="P143" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q143" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R143" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S143" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T143" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U143" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V143" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W143" s="0"/>
+      <c r="X143" s="0"/>
+      <c r="Y143" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z143" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA143" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB143" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="144">
@@ -7581,7 +12012,7 @@
         <v>18</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H144" s="0" t="s">
         <v>18</v>
@@ -7589,8 +12020,8 @@
       <c r="I144" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J144" s="0" t="s">
-        <v>18</v>
+      <c r="J144" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K144" s="0" t="s">
         <v>18</v>
@@ -7608,7 +12039,39 @@
         <v>24</v>
       </c>
       <c r="P144" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q144" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R144" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S144" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T144" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U144" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V144" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W144" s="0"/>
+      <c r="X144" s="0"/>
+      <c r="Y144" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z144" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA144" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB144" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="145">
@@ -7631,7 +12094,7 @@
         <v>18</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H145" s="0" t="s">
         <v>18</v>
@@ -7639,8 +12102,8 @@
       <c r="I145" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J145" s="0" t="s">
-        <v>18</v>
+      <c r="J145" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K145" s="0" t="s">
         <v>18</v>
@@ -7658,7 +12121,39 @@
         <v>24</v>
       </c>
       <c r="P145" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q145" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R145" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S145" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T145" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U145" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V145" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W145" s="0"/>
+      <c r="X145" s="0"/>
+      <c r="Y145" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z145" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA145" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB145" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="146">
@@ -7681,7 +12176,7 @@
         <v>18</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H146" s="0" t="s">
         <v>18</v>
@@ -7689,8 +12184,8 @@
       <c r="I146" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J146" s="0" t="s">
-        <v>18</v>
+      <c r="J146" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K146" s="0" t="s">
         <v>18</v>
@@ -7708,7 +12203,39 @@
         <v>24</v>
       </c>
       <c r="P146" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q146" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R146" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S146" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T146" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U146" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V146" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W146" s="0"/>
+      <c r="X146" s="0"/>
+      <c r="Y146" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z146" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA146" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB146" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="147">
@@ -7731,7 +12258,7 @@
         <v>18</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H147" s="0" t="s">
         <v>18</v>
@@ -7739,8 +12266,8 @@
       <c r="I147" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J147" s="0" t="s">
-        <v>18</v>
+      <c r="J147" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K147" s="0" t="s">
         <v>18</v>
@@ -7758,7 +12285,39 @@
         <v>24</v>
       </c>
       <c r="P147" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q147" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R147" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S147" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T147" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U147" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V147" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W147" s="0"/>
+      <c r="X147" s="0"/>
+      <c r="Y147" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z147" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA147" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB147" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="148">
@@ -7781,7 +12340,7 @@
         <v>18</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H148" s="0" t="s">
         <v>18</v>
@@ -7789,8 +12348,8 @@
       <c r="I148" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J148" s="0" t="s">
-        <v>18</v>
+      <c r="J148" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K148" s="0" t="s">
         <v>18</v>
@@ -7808,7 +12367,39 @@
         <v>24</v>
       </c>
       <c r="P148" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q148" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R148" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S148" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T148" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U148" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V148" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W148" s="0"/>
+      <c r="X148" s="0"/>
+      <c r="Y148" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z148" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA148" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB148" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="149">
@@ -7831,7 +12422,7 @@
         <v>18</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H149" s="0" t="s">
         <v>18</v>
@@ -7839,8 +12430,8 @@
       <c r="I149" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J149" s="0" t="s">
-        <v>18</v>
+      <c r="J149" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K149" s="0" t="s">
         <v>18</v>
@@ -7858,7 +12449,39 @@
         <v>24</v>
       </c>
       <c r="P149" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q149" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R149" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S149" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T149" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U149" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V149" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W149" s="0"/>
+      <c r="X149" s="0"/>
+      <c r="Y149" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z149" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA149" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB149" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="150">
@@ -7881,7 +12504,7 @@
         <v>18</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H150" s="0" t="s">
         <v>18</v>
@@ -7889,8 +12512,8 @@
       <c r="I150" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J150" s="0" t="s">
-        <v>18</v>
+      <c r="J150" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K150" s="0" t="s">
         <v>18</v>
@@ -7908,7 +12531,39 @@
         <v>24</v>
       </c>
       <c r="P150" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q150" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R150" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S150" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T150" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U150" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V150" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W150" s="0"/>
+      <c r="X150" s="0"/>
+      <c r="Y150" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z150" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA150" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB150" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="151">
@@ -7931,7 +12586,7 @@
         <v>18</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H151" s="0" t="s">
         <v>18</v>
@@ -7939,8 +12594,8 @@
       <c r="I151" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J151" s="0" t="s">
-        <v>18</v>
+      <c r="J151" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K151" s="0" t="s">
         <v>18</v>
@@ -7958,7 +12613,39 @@
         <v>24</v>
       </c>
       <c r="P151" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q151" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R151" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S151" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T151" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U151" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V151" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W151" s="0"/>
+      <c r="X151" s="0"/>
+      <c r="Y151" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z151" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA151" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB151" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="152">
@@ -7981,7 +12668,7 @@
         <v>18</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H152" s="0" t="s">
         <v>18</v>
@@ -7989,8 +12676,8 @@
       <c r="I152" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J152" s="0" t="s">
-        <v>18</v>
+      <c r="J152" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K152" s="0" t="s">
         <v>18</v>
@@ -8008,7 +12695,39 @@
         <v>24</v>
       </c>
       <c r="P152" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q152" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R152" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S152" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T152" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U152" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V152" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W152" s="0"/>
+      <c r="X152" s="0"/>
+      <c r="Y152" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z152" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA152" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB152" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="153">
@@ -8031,7 +12750,7 @@
         <v>18</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H153" s="0" t="s">
         <v>18</v>
@@ -8039,8 +12758,8 @@
       <c r="I153" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J153" s="0" t="s">
-        <v>18</v>
+      <c r="J153" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K153" s="0" t="s">
         <v>18</v>
@@ -8058,7 +12777,39 @@
         <v>24</v>
       </c>
       <c r="P153" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q153" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R153" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S153" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T153" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U153" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V153" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W153" s="0"/>
+      <c r="X153" s="0"/>
+      <c r="Y153" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z153" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA153" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB153" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="154">
@@ -8081,7 +12832,7 @@
         <v>18</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H154" s="0" t="s">
         <v>18</v>
@@ -8089,8 +12840,8 @@
       <c r="I154" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J154" s="0" t="s">
-        <v>18</v>
+      <c r="J154" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K154" s="0" t="s">
         <v>18</v>
@@ -8108,7 +12859,39 @@
         <v>24</v>
       </c>
       <c r="P154" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q154" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R154" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S154" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T154" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U154" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V154" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W154" s="0"/>
+      <c r="X154" s="0"/>
+      <c r="Y154" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z154" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA154" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB154" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="155">
@@ -8131,7 +12914,7 @@
         <v>18</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H155" s="0" t="s">
         <v>18</v>
@@ -8139,8 +12922,8 @@
       <c r="I155" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J155" s="0" t="s">
-        <v>18</v>
+      <c r="J155" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K155" s="0" t="s">
         <v>18</v>
@@ -8158,7 +12941,39 @@
         <v>24</v>
       </c>
       <c r="P155" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q155" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R155" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S155" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T155" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U155" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V155" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W155" s="0"/>
+      <c r="X155" s="0"/>
+      <c r="Y155" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z155" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA155" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB155" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="156">
@@ -8181,7 +12996,7 @@
         <v>18</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H156" s="0" t="s">
         <v>18</v>
@@ -8189,8 +13004,8 @@
       <c r="I156" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J156" s="0" t="s">
-        <v>18</v>
+      <c r="J156" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K156" s="0" t="s">
         <v>18</v>
@@ -8208,7 +13023,39 @@
         <v>24</v>
       </c>
       <c r="P156" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q156" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R156" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S156" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T156" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U156" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V156" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W156" s="0"/>
+      <c r="X156" s="0"/>
+      <c r="Y156" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z156" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA156" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="AB156" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="157">
@@ -8231,7 +13078,7 @@
         <v>18</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H157" s="0" t="s">
         <v>18</v>
@@ -8239,8 +13086,8 @@
       <c r="I157" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J157" s="0" t="s">
-        <v>18</v>
+      <c r="J157" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K157" s="0" t="s">
         <v>18</v>
@@ -8258,7 +13105,39 @@
         <v>24</v>
       </c>
       <c r="P157" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q157" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R157" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S157" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T157" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U157" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V157" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W157" s="0"/>
+      <c r="X157" s="0"/>
+      <c r="Y157" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z157" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA157" s="0" t="s">
         <v>220</v>
+      </c>
+      <c r="AB157" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="158">
@@ -8281,7 +13160,7 @@
         <v>18</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H158" s="0" t="s">
         <v>18</v>
@@ -8289,8 +13168,8 @@
       <c r="I158" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J158" s="0" t="s">
-        <v>18</v>
+      <c r="J158" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K158" s="0" t="s">
         <v>18</v>
@@ -8308,7 +13187,39 @@
         <v>24</v>
       </c>
       <c r="P158" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q158" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R158" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S158" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T158" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U158" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V158" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W158" s="0"/>
+      <c r="X158" s="0"/>
+      <c r="Y158" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z158" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA158" s="0" t="s">
         <v>220</v>
+      </c>
+      <c r="AB158" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="159">
@@ -8331,7 +13242,7 @@
         <v>18</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H159" s="0" t="s">
         <v>18</v>
@@ -8339,8 +13250,8 @@
       <c r="I159" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J159" s="0" t="s">
-        <v>18</v>
+      <c r="J159" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K159" s="0" t="s">
         <v>18</v>
@@ -8358,7 +13269,39 @@
         <v>24</v>
       </c>
       <c r="P159" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q159" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R159" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S159" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T159" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U159" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V159" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W159" s="0"/>
+      <c r="X159" s="0"/>
+      <c r="Y159" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z159" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA159" s="0" t="s">
         <v>220</v>
+      </c>
+      <c r="AB159" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="160">
@@ -8381,7 +13324,7 @@
         <v>18</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H160" s="0" t="s">
         <v>18</v>
@@ -8389,8 +13332,8 @@
       <c r="I160" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J160" s="0" t="s">
-        <v>18</v>
+      <c r="J160" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K160" s="0" t="s">
         <v>18</v>
@@ -8408,7 +13351,39 @@
         <v>24</v>
       </c>
       <c r="P160" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q160" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R160" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S160" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T160" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U160" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V160" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W160" s="0"/>
+      <c r="X160" s="0"/>
+      <c r="Y160" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z160" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA160" s="0" t="s">
         <v>220</v>
+      </c>
+      <c r="AB160" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="161">
@@ -8431,7 +13406,7 @@
         <v>18</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H161" s="0" t="s">
         <v>18</v>
@@ -8439,8 +13414,8 @@
       <c r="I161" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J161" s="0" t="s">
-        <v>18</v>
+      <c r="J161" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K161" s="0" t="s">
         <v>18</v>
@@ -8458,7 +13433,39 @@
         <v>24</v>
       </c>
       <c r="P161" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q161" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R161" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S161" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T161" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U161" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V161" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W161" s="0"/>
+      <c r="X161" s="0"/>
+      <c r="Y161" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z161" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA161" s="0" t="s">
         <v>220</v>
+      </c>
+      <c r="AB161" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="162">
@@ -8481,7 +13488,7 @@
         <v>18</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H162" s="0" t="s">
         <v>18</v>
@@ -8489,8 +13496,8 @@
       <c r="I162" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J162" s="0" t="s">
-        <v>18</v>
+      <c r="J162" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K162" s="0" t="s">
         <v>18</v>
@@ -8508,7 +13515,39 @@
         <v>24</v>
       </c>
       <c r="P162" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q162" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R162" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S162" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T162" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U162" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V162" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W162" s="0"/>
+      <c r="X162" s="0"/>
+      <c r="Y162" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z162" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA162" s="0" t="s">
         <v>220</v>
+      </c>
+      <c r="AB162" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="163">
@@ -8531,7 +13570,7 @@
         <v>18</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H163" s="0" t="s">
         <v>18</v>
@@ -8539,8 +13578,8 @@
       <c r="I163" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J163" s="0" t="s">
-        <v>18</v>
+      <c r="J163" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K163" s="0" t="s">
         <v>18</v>
@@ -8558,7 +13597,39 @@
         <v>24</v>
       </c>
       <c r="P163" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q163" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R163" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S163" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T163" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U163" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V163" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W163" s="0"/>
+      <c r="X163" s="0"/>
+      <c r="Y163" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z163" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA163" s="0" t="s">
         <v>220</v>
+      </c>
+      <c r="AB163" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="164">
@@ -8581,7 +13652,7 @@
         <v>18</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H164" s="0" t="s">
         <v>18</v>
@@ -8589,8 +13660,8 @@
       <c r="I164" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J164" s="0" t="s">
-        <v>18</v>
+      <c r="J164" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K164" s="0" t="s">
         <v>18</v>
@@ -8608,7 +13679,39 @@
         <v>24</v>
       </c>
       <c r="P164" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q164" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R164" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S164" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T164" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U164" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V164" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W164" s="0"/>
+      <c r="X164" s="0"/>
+      <c r="Y164" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z164" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA164" s="0" t="s">
         <v>220</v>
+      </c>
+      <c r="AB164" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="165">
@@ -8631,7 +13734,7 @@
         <v>18</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H165" s="0" t="s">
         <v>18</v>
@@ -8639,8 +13742,8 @@
       <c r="I165" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J165" s="0" t="s">
-        <v>18</v>
+      <c r="J165" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K165" s="0" t="s">
         <v>18</v>
@@ -8658,7 +13761,39 @@
         <v>24</v>
       </c>
       <c r="P165" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q165" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R165" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S165" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T165" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U165" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V165" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W165" s="0"/>
+      <c r="X165" s="0"/>
+      <c r="Y165" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z165" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA165" s="0" t="s">
         <v>220</v>
+      </c>
+      <c r="AB165" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="166">
@@ -8681,7 +13816,7 @@
         <v>18</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H166" s="0" t="s">
         <v>18</v>
@@ -8689,8 +13824,8 @@
       <c r="I166" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J166" s="0" t="s">
-        <v>18</v>
+      <c r="J166" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K166" s="0" t="s">
         <v>18</v>
@@ -8708,7 +13843,39 @@
         <v>24</v>
       </c>
       <c r="P166" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q166" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R166" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S166" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T166" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U166" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V166" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W166" s="0"/>
+      <c r="X166" s="0"/>
+      <c r="Y166" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z166" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA166" s="0" t="s">
         <v>220</v>
+      </c>
+      <c r="AB166" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="167">
@@ -8731,7 +13898,7 @@
         <v>18</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H167" s="0" t="s">
         <v>18</v>
@@ -8739,8 +13906,8 @@
       <c r="I167" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J167" s="0" t="s">
-        <v>18</v>
+      <c r="J167" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K167" s="0" t="s">
         <v>18</v>
@@ -8758,7 +13925,39 @@
         <v>24</v>
       </c>
       <c r="P167" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q167" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R167" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S167" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T167" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U167" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V167" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W167" s="0"/>
+      <c r="X167" s="0"/>
+      <c r="Y167" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z167" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA167" s="0" t="s">
         <v>220</v>
+      </c>
+      <c r="AB167" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="168">
@@ -8781,7 +13980,7 @@
         <v>18</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="H168" s="0" t="s">
         <v>18</v>
@@ -8789,8 +13988,8 @@
       <c r="I168" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J168" s="0" t="s">
-        <v>18</v>
+      <c r="J168" s="0" t="n">
+        <v>46.0</v>
       </c>
       <c r="K168" s="0" t="s">
         <v>18</v>
@@ -8808,7 +14007,39 @@
         <v>24</v>
       </c>
       <c r="P168" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q168" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R168" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="S168" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="T168" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="U168" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="V168" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="W168" s="0"/>
+      <c r="X168" s="0"/>
+      <c r="Y168" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z168" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA168" s="0" t="s">
         <v>220</v>
+      </c>
+      <c r="AB168" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
